--- a/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
+++ b/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BDE4C-F4B3-044B-93F5-53082B352178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29156556-6123-4340-B59F-9BEA283C5315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="64080" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="10" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="4" r:id="rId4"/>
-    <sheet name="ops" sheetId="5" r:id="rId5"/>
-    <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
-    <sheet name="sps" sheetId="7" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
+    <sheet name="config" sheetId="12" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="10" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="4" r:id="rId5"/>
+    <sheet name="ops" sheetId="5" r:id="rId6"/>
+    <sheet name="interactions" sheetId="6" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
+    <sheet name="sps" sheetId="7" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$30</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="432">
   <si>
     <t>Element</t>
   </si>
@@ -1152,9 +1153,6 @@
   </si>
   <si>
     <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -1286,9 +1284,6 @@
     <t>PractitionerRole:practitioner, PractitionerRole:organization, PractitionerRole:location, PractitionerRole:network, PractitionerRole:healthcareservice, PractitionerRole:network</t>
   </si>
   <si>
-    <t>SHOULD NOT</t>
-  </si>
-  <si>
     <t>conf_Endpoint</t>
   </si>
   <si>
@@ -1398,13 +1393,49 @@
   </si>
   <si>
     <t>This Section describes the expected capabilities of the Plan-Net Server actor which is responsible for providing responses to the queries submitted by the Plan-Net Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Plan-Net Servers are defined. Systems implementing this capability statement should meet the [CMS FInal Rule requirement for provider directory access].  Plan-Net  Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>HL7 Financial Management Working Group (FM WG)</t>
+  </si>
+  <si>
+    <t>SHOULD-NOT</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/</t>
+  </si>
+  <si>
+    <t>plannet</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/fm/index.cfm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1554,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1576,7 +1613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1616,6 +1653,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1931,10 +1969,2621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C527BFB-CCF4-354D-B696-43330F2FE9C6}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>69</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>70</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>94</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>100</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>102</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>104</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>112</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>115</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1957,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1965,7 +4614,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1973,7 +4622,7 @@
         <v>343</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1989,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2047,11 +4696,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2079,55 +4728,55 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2139,10 +4788,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2154,10 +4803,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2169,25 +4818,25 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2199,10 +4848,10 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2231,12 +4880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
@@ -2332,7 +4981,7 @@
     </row>
     <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -2347,7 +4996,7 @@
         <v>65</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -2355,7 +5004,7 @@
     </row>
     <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2367,14 +5016,14 @@
         <v>65</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2386,10 +5035,10 @@
         <v>65</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>374</v>
       </c>
       <c r="W4" s="14"/>
     </row>
@@ -2407,10 +5056,10 @@
         <v>65</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="W5" s="14"/>
       <c r="X5"/>
@@ -2429,10 +5078,10 @@
         <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>378</v>
       </c>
       <c r="W6" s="14"/>
     </row>
@@ -2454,7 +5103,7 @@
     </row>
     <row r="8" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2466,10 +5115,10 @@
         <v>65</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="W8" s="14"/>
     </row>
@@ -2487,7 +5136,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -2506,10 +5155,10 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="W10" s="14"/>
     </row>
@@ -2541,7 +5190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2582,15 +5231,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:J8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,25 +5261,25 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>282</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>283</v>
@@ -2772,7 +5421,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2804,7 +5453,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2836,7 +5485,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2940,7 +5589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB526E8-FEFB-4D61-9493-6CABF1663041}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3006,7 +5655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
@@ -3014,7 +5663,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31:E54"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3036,8 +5685,10 @@
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
     <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -3476,10 +6127,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -3530,10 +6181,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -3590,10 +6241,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -3648,10 +6299,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -3703,10 +6354,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -3758,10 +6409,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -3814,10 +6465,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -3872,10 +6523,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -3931,7 +6582,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -3985,7 +6636,7 @@
         <v>224</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4040,7 +6691,7 @@
         <v>225</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -4095,7 +6746,7 @@
         <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -4149,10 +6800,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -4203,10 +6854,10 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -4258,10 +6909,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -4313,10 +6964,10 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -4368,10 +7019,10 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -4429,7 +7080,7 @@
         <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -4485,7 +7136,7 @@
         <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -4544,7 +7195,7 @@
         <v>227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -4600,7 +7251,7 @@
         <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -4656,7 +7307,7 @@
         <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -4712,7 +7363,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
@@ -4758,7 +7409,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>118</v>
@@ -4804,7 +7455,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -4850,10 +7501,10 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -4896,10 +7547,10 @@
         <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -4942,10 +7593,10 @@
         <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -4988,7 +7639,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>25</v>
@@ -5034,10 +7685,10 @@
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -5080,10 +7731,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -5126,7 +7777,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
@@ -5221,7 +7872,7 @@
         <v>224</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -5240,10 +7891,10 @@
         <v>59</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>13</v>
@@ -5254,7 +7905,7 @@
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,7 +7917,7 @@
         <v>225</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -5312,7 +7963,7 @@
         <v>225</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -5493,7 +8144,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -5539,10 +8190,10 @@
         <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -5585,7 +8236,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>67</v>
@@ -5631,7 +8282,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>68</v>
@@ -5726,7 +8377,7 @@
         <v>227</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -5772,7 +8423,7 @@
         <v>227</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -5821,2541 +8472,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J45" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>63</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J50" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>64</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J51" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J56" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>74</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>75</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>77</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>80</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>81</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>82</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>83</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>84</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>85</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J66" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>88</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J67" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>89</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>91</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>94</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>97</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>101</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>102</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>104</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>107</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>108</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>109</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>111</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>112</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J83" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>115</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
+++ b/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9203AD6-80A4-8441-9AFC-9CA1CC1B8441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A37FC25-7AAC-0149-9B4F-6D786C888F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="64520" windowHeight="25180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="53120" windowHeight="25180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="237">
   <si>
     <t>Element</t>
   </si>
@@ -622,15 +622,6 @@
   </si>
   <si>
     <t>Location:endpoint, Location:managingOrganization, Location.partOf</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation:primaryOrganization, OrganizationAffiliation:participatingOrganization, OrganizationAffiliation.location, OrganizationAffiliation:healthcareService</t>
-  </si>
-  <si>
-    <t>PractitionerRole:practitioner, PractitionerRole:organization, PractitionerRole:location, PractitionerRole:network, PractitionerRole:healthcareservice, PractitionerRole:network, PractitionerRole:endpoint</t>
-  </si>
-  <si>
-    <t>PractitionerRole:practitioner, PractitionerRole:organization, PractitionerRole:location, PractitionerRole:network, PractitionerRole:healthcareservice, PractitionerRole:network</t>
   </si>
   <si>
     <t>conf_Endpoint</t>
@@ -787,73 +778,74 @@
     <t>/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/plan-net-definitions.json</t>
   </si>
   <si>
-    <t>HealthcareService:location, HealthcareService:coverageArea, HealthcareService:providedBy, HealthcareService:endpoint</t>
-  </si>
-  <si>
-    <t>Organization:partOf</t>
-  </si>
-  <si>
-    <t>Organization.partof, 
-Organization.endpoint</t>
-  </si>
-  <si>
-    <t>Location:managingOrganization, 
-Location.partOf</t>
-  </si>
-  <si>
-    <t>HealthcareService:location, HealthcareService:coverageArea, HealthcareService:providedBy</t>
+    <t>Practitioner:endpoint</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>owned-by</t>
+  </si>
+  <si>
+    <t>coverage-area</t>
+  </si>
+  <si>
+    <t>administered-by</t>
+  </si>
+  <si>
+    <t>participating-organization</t>
+  </si>
+  <si>
+    <t>primary-organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/ImplementationGuide/hl7.fhir.us.davinci-pdex-plan-net</t>
+  </si>
+  <si>
+    <t>service-type</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>service-category</t>
+  </si>
+  <si>
+    <t>plan-type</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t>Endpoint:organization</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,HealthcareService:coverageArea,HealthcareService:providedBy,HealthcareService:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:practitioner, PractitionerRole:organization,PractitionerRole:location, PractitionerRole:healthcareservice, PractitionerRole:network, PractitionerRole:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:practitioner</t>
   </si>
   <si>
     <t>OrganizationAffiliation:primaryOrganization, 
-OrganizationAffiliation:participatingOrganization, OrganizationAffiliation.location, OrganizationAffiliation:healthcareService, OrganizationAffiliation:endpoint</t>
-  </si>
-  <si>
-    <t>Practitioner:endpoint</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>owned-by</t>
-  </si>
-  <si>
-    <t>coverage-area</t>
-  </si>
-  <si>
-    <t>administered-by</t>
-  </si>
-  <si>
-    <t>participating-organization</t>
-  </si>
-  <si>
-    <t>primary-organization</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/ImplementationGuide/hl7.fhir.us.davinci-pdex-plan-net</t>
-  </si>
-  <si>
-    <t>service-type</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>service-category</t>
-  </si>
-  <si>
-    <t>plan-type</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t>Endpoint:organization</t>
-  </si>
-  <si>
-    <t>InsurancePlan:administeredBy, InsurancePlan:ownedBy, insurancePlan:coverageArea,  InsurancePlan.endpoint</t>
-  </si>
-  <si>
-    <t>InsurancePlan:administeredBy, InsurancePlan:ownedBy, insurancePlan:coverageArea</t>
+OrganizationAffiliation:participatingOrganization,OrganizationAffiliation.location,OrganizationAffiliation:healthcareService,OrganizationAffiliation:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:healthcareservice,OrganizationAffiliation:healthcareService</t>
+  </si>
+  <si>
+    <t>Endpoint:organization,HealthcareService:providedBy,InsurancePlan:administeredBy,InsurancePlan:ownedBy,OrganizationAffiliation:primaryOrganization,PractitionerRole:organization,PractitionerRole:network,OrganizationAffiliation:participatingOrganization</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,InsurancePlan:coverageArea,OrganizationAffiliation.location,PractitionerRole:location</t>
+  </si>
+  <si>
+    <t>InsurancePlan:administeredBy,InsurancePlan:ownedBy,InsurancePlan:coverageArea, InsurancePlan.endpoint</t>
+  </si>
+  <si>
+    <t>Organization.partof,Organization.endpoint</t>
   </si>
 </sst>
 </file>
@@ -1433,90 +1425,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2806,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2852,7 +2844,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2884,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3114,11 +3106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3227,13 +3219,13 @@
         <v>13</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -3241,7 +3233,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>21</v>
@@ -3250,14 +3242,14 @@
         <v>13</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="W3" s="26"/>
     </row>
-    <row r="4" spans="1:24" ht="65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>21</v>
@@ -3274,11 +3266,9 @@
         <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>238</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="V4" s="26"/>
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:24" ht="49" x14ac:dyDescent="0.25">
@@ -3289,7 +3279,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>21</v>
@@ -3301,12 +3291,12 @@
         <v>166</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="W5" s="26"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="97" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -3314,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>21</v>
@@ -3323,10 +3313,10 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>218</v>
+        <v>236</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="W6" s="26"/>
     </row>
@@ -3338,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>21</v>
@@ -3347,10 +3337,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="W7" s="26"/>
     </row>
@@ -3362,7 +3349,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -3371,12 +3358,14 @@
         <v>13</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="V8" s="26"/>
+        <v>214</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>230</v>
+      </c>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" spans="1:24" ht="113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="97" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -3384,7 +3373,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>21</v>
@@ -3393,10 +3382,7 @@
         <v>13</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -3495,25 +3481,25 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>116</v>
@@ -3655,31 +3641,31 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3687,31 +3673,31 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3719,31 +3705,31 @@
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3893,7 +3879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4364,7 +4350,7 @@
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -4419,7 +4405,7 @@
         <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -4480,7 +4466,7 @@
         <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -4539,7 +4525,7 @@
         <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -4595,7 +4581,7 @@
         <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -4651,7 +4637,7 @@
         <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -4707,7 +4693,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -4761,10 +4747,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -4820,7 +4806,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -4877,7 +4863,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4932,7 +4918,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -4988,7 +4974,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -5044,7 +5030,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -5100,7 +5086,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -5158,7 +5144,7 @@
         <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -5214,7 +5200,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -5270,7 +5256,7 @@
         <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -5325,7 +5311,7 @@
         <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -5381,7 +5367,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -5437,7 +5423,7 @@
         <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -5493,7 +5479,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -5549,7 +5535,7 @@
         <v>165</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -5605,7 +5591,7 @@
         <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -5662,7 +5648,7 @@
         <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -5719,7 +5705,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -5776,7 +5762,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5833,7 +5819,7 @@
         <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -5889,7 +5875,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -5994,7 +5980,7 @@
         <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -6043,7 +6029,7 @@
         <v>163</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -6092,7 +6078,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -6190,7 +6176,7 @@
         <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -6236,7 +6222,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -6485,7 +6471,7 @@
         <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -6534,7 +6520,7 @@
         <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -6580,7 +6566,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>67</v>
@@ -6629,7 +6615,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>68</v>
@@ -6730,7 +6716,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -6779,7 +6765,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>

--- a/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
+++ b/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A37FC25-7AAC-0149-9B4F-6D786C888F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC60B6-F0D0-F943-9536-F555E602F15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="53120" windowHeight="25180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20720" yWindow="1400" windowWidth="53120" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="231">
   <si>
     <t>Element</t>
   </si>
@@ -621,9 +621,6 @@
     <t>OrganizationAffiliation</t>
   </si>
   <si>
-    <t>Location:endpoint, Location:managingOrganization, Location.partOf</t>
-  </si>
-  <si>
     <t>conf_Endpoint</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
     <t>organization</t>
   </si>
   <si>
-    <t>InsurancePLan</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
@@ -696,9 +690,6 @@
     <t>HL7 Financial Management Working Group (FM WG)</t>
   </si>
   <si>
-    <t>SHOULD-NOT</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/</t>
   </si>
   <si>
@@ -706,27 +697,6 @@
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/fm/index.cfm</t>
-  </si>
-  <si>
-    <t>HealthcareService documentation is here</t>
-  </si>
-  <si>
-    <t>InsurancePlan documentation is here</t>
-  </si>
-  <si>
-    <t>Location documentation is here</t>
-  </si>
-  <si>
-    <t>Organization documentation is here</t>
-  </si>
-  <si>
-    <t>PractitionerRole documentation is here</t>
-  </si>
-  <si>
-    <t>Practitioner documentation is here</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation documentation is here</t>
   </si>
   <si>
     <t xml:space="preserve">The Plan-Net  Server **SHALL**:
@@ -778,9 +748,6 @@
     <t>/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/plan-net-definitions.json</t>
   </si>
   <si>
-    <t>Practitioner:endpoint</t>
-  </si>
-  <si>
     <t>endpoint</t>
   </si>
   <si>
@@ -820,39 +787,54 @@
     <t>Endpoint:organization</t>
   </si>
   <si>
-    <t>HealthcareService:location,HealthcareService:coverageArea,HealthcareService:providedBy,HealthcareService:endpoint</t>
-  </si>
-  <si>
-    <t>PractitionerRole:practitioner, PractitionerRole:organization,PractitionerRole:location, PractitionerRole:healthcareservice, PractitionerRole:network, PractitionerRole:endpoint</t>
-  </si>
-  <si>
     <t>PractitionerRole:practitioner</t>
   </si>
   <si>
-    <t>OrganizationAffiliation:primaryOrganization, 
-OrganizationAffiliation:participatingOrganization,OrganizationAffiliation.location,OrganizationAffiliation:healthcareService,OrganizationAffiliation:endpoint</t>
-  </si>
-  <si>
-    <t>PractitionerRole:healthcareservice,OrganizationAffiliation:healthcareService</t>
-  </si>
-  <si>
-    <t>Endpoint:organization,HealthcareService:providedBy,InsurancePlan:administeredBy,InsurancePlan:ownedBy,OrganizationAffiliation:primaryOrganization,PractitionerRole:organization,PractitionerRole:network,OrganizationAffiliation:participatingOrganization</t>
-  </si>
-  <si>
-    <t>HealthcareService:location,InsurancePlan:coverageArea,OrganizationAffiliation.location,PractitionerRole:location</t>
-  </si>
-  <si>
-    <t>InsurancePlan:administeredBy,InsurancePlan:ownedBy,InsurancePlan:coverageArea, InsurancePlan.endpoint</t>
-  </si>
-  <si>
     <t>Organization.partof,Organization.endpoint</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
+  </si>
+  <si>
+    <t>!Organization</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,HealthcareService:coverage-area,HealthcareService:organization,HealthcareService:endpoint</t>
+  </si>
+  <si>
+    <t>InsurancePlan:administered-by,InsurancePlan:owned-by,InsurancePlan:coverage-area</t>
+  </si>
+  <si>
+    <t>Location:endpoint, Location:organization, Location.partof</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation:primary-organization, 
+OrganizationAffiliation:participating-organization,OrganizationAffiliation.location,OrganizationAffiliation:service,OrganizationAffiliation:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:practitioner, PractitionerRole:organization,PractitionerRole:location, PractitionerRole:service, PractitionerRole:network, PractitionerRole:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:service,OrganizationAffiliation:service</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,InsurancePlan:coverage-area,OrganizationAffiliation.location,PractitionerRole:location</t>
+  </si>
+  <si>
+    <t>Endpoint:organization,HealthcareService:organization,InsurancePlan:administered-by,InsurancePlan:owned-by,OrganizationAffiliation:primary-organization,PractitionerRole:organization,PractitionerRole:network,OrganizationAffiliation:participating-organization</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>skip rest interaction section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +965,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1042,7 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1088,6 +1076,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1404,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C527BFB-CCF4-354D-B696-43330F2FE9C6}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1423,92 +1413,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>207</v>
+        <v>185</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
+      <c r="A9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2845,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3106,11 +3107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3124,7 +3125,9 @@
     <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="36.6640625" style="2" customWidth="1"/>
-    <col min="21" max="23" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="72.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3219,22 +3222,19 @@
         <v>13</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="65" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3242,10 +3242,10 @@
         <v>13</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="W3" s="26"/>
     </row>
@@ -3256,9 +3256,6 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3266,21 +3263,18 @@
         <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:24" ht="49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="R5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3288,24 +3282,21 @@
         <v>13</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="W5" s="26"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="81" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="R6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3313,10 +3304,10 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="W6" s="26"/>
     </row>
@@ -3327,9 +3318,6 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="R7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="W7" s="26"/>
     </row>
@@ -3348,33 +3336,24 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="V8" s="26" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" spans="1:24" ht="97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="81" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -3391,6 +3370,48 @@
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
+    </row>
+    <row r="12" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="30"/>
+    </row>
+    <row r="23" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="16:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="29"/>
     </row>
     <row r="42" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T42" s="27"/>
@@ -3459,7 +3480,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6:J8"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3481,25 +3502,25 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>116</v>
@@ -3512,33 +3533,13 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B2"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3640,161 +3641,58 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="1"/>
@@ -3877,13 +3775,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37:M54"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4350,7 +4248,7 @@
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -4405,7 +4303,7 @@
         <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -4466,7 +4364,7 @@
         <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -4525,7 +4423,7 @@
         <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -4581,7 +4479,7 @@
         <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -4637,7 +4535,7 @@
         <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -4693,7 +4591,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -4747,10 +4645,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -4773,7 +4671,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>InsurancePLan.coverage-area</v>
+        <v>InsurancePlan.coverage-area</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>59</v>
@@ -4806,7 +4704,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -4845,7 +4743,7 @@
       </c>
       <c r="Y17" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Support searching for a InsurancePLan by its network</v>
+        <v>Support searching for a InsurancePlan by its network</v>
       </c>
       <c r="Z17"/>
       <c r="AA17" s="10"/>
@@ -4863,7 +4761,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4918,7 +4816,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -4974,7 +4872,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -5027,10 +4925,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -5053,7 +4951,7 @@
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Organization.partof</v>
+        <v>!Organization.partof</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>59</v>
@@ -5074,7 +4972,7 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-plan-net-organization-partof.html</v>
+        <v>SearchParameter-plan-net-!organization-partof.html</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5086,7 +4984,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -5127,7 +5025,7 @@
       <c r="X22"/>
       <c r="Y22" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Support searching for a Organization by its partof</v>
+        <v>Support searching for a !Organization by its partof</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="1" t="str">
@@ -5141,10 +5039,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -5167,7 +5065,7 @@
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" ref="J23:J24" si="20">B23&amp;"."&amp;C23</f>
-        <v>Organization.endpoint</v>
+        <v>!Organization.endpoint</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>59</v>
@@ -5183,12 +5081,12 @@
       </c>
       <c r="Y23" s="23" t="str">
         <f>"Support searching for a "&amp; B21 &amp;" by its " &amp; C23</f>
-        <v>Support searching for a Organization by its endpoint</v>
+        <v>Support searching for a !Organization by its endpoint</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="1" t="str">
         <f t="shared" ref="AB23:AB24" si="21">"SearchParameter-plan-net-"&amp;LOWER((B23)&amp;"-"&amp;C23&amp;".html")</f>
-        <v>SearchParameter-plan-net-organization-endpoint.html</v>
+        <v>SearchParameter-plan-net-!organization-endpoint.html</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,7 +5098,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -5239,7 +5137,7 @@
       </c>
       <c r="Y24" s="23" t="str">
         <f t="shared" ref="Y24" si="23">"Support searching for a "&amp; B23 &amp;" by its " &amp; C24</f>
-        <v>Support searching for a Organization by its endpoint</v>
+        <v>Support searching for a !Organization by its endpoint</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="1" t="str">
@@ -5256,7 +5154,7 @@
         <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -5311,7 +5209,7 @@
         <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -5367,7 +5265,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -5423,7 +5321,7 @@
         <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -5479,7 +5377,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -5535,7 +5433,7 @@
         <v>165</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -5591,7 +5489,7 @@
         <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -5648,7 +5546,7 @@
         <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -5705,7 +5603,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -5762,7 +5660,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5819,7 +5717,7 @@
         <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -5875,7 +5773,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -5980,7 +5878,7 @@
         <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -6029,7 +5927,7 @@
         <v>163</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -6078,7 +5976,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -6176,7 +6074,7 @@
         <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -6222,7 +6120,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -6471,7 +6369,7 @@
         <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -6520,7 +6418,7 @@
         <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -6566,7 +6464,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>67</v>
@@ -6615,7 +6513,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>68</v>
@@ -6716,7 +6614,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -6765,7 +6663,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -6805,8 +6703,13 @@
         <v>SearchParameter-plan-net-practitionerrole-specialty.html</v>
       </c>
     </row>
+    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AB35" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <autoFilter ref="A1:AB54" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA28">
     <sortCondition ref="B1"/>
   </sortState>

--- a/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
+++ b/CapStatement/temp_source_spreadsheets/plan-net-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC60B6-F0D0-F943-9536-F555E602F15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4119454C-5CF9-274A-89A8-E277AAA53797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20720" yWindow="1400" windowWidth="53120" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="2020" windowWidth="53120" windowHeight="25180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="240">
   <si>
     <t>Element</t>
   </si>
@@ -518,185 +518,324 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>!MedicationStatement</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>davinci-pdex-plan-net</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Endpoint</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-HealthcareService</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-InsurancePlan</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Location</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Network</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-OrganizationAffiliation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Practitioner</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-PractitionerRole</t>
+  </si>
+  <si>
+    <t>Plan-Net Endpoint</t>
+  </si>
+  <si>
+    <t>Plan-Net HealthcareService</t>
+  </si>
+  <si>
+    <t>Plan-Net InsurancePlan</t>
+  </si>
+  <si>
+    <t>Plan-Net Location</t>
+  </si>
+  <si>
+    <t>Plan-Net Network</t>
+  </si>
+  <si>
+    <t>Plan-Net Organization</t>
+  </si>
+  <si>
+    <t>Plan-Net OrganizationAffiliation</t>
+  </si>
+  <si>
+    <t>Plan-Net Practitioner</t>
+  </si>
+  <si>
+    <t>Plan-Net PractitionerRole</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>HealthcareService</t>
+  </si>
+  <si>
+    <t>InsurancePlan</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation</t>
+  </si>
+  <si>
+    <t>conf_Endpoint</t>
+  </si>
+  <si>
+    <t>conf_HealthcareService</t>
+  </si>
+  <si>
+    <t>conf_InsurancePlan</t>
+  </si>
+  <si>
+    <t>conf_Network</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner </t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>conf_Location</t>
+  </si>
+  <si>
+    <t>conf_OrganizationAffiliation</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>HL7 Financial Management Working Group (FM WG)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/</t>
+  </si>
+  <si>
+    <t>plannet</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/fm/index.cfm</t>
+  </si>
+  <si>
+    <t>ig_package_tar_path</t>
+  </si>
+  <si>
+    <t>ig_source_path</t>
+  </si>
+  <si>
+    <t>in_path</t>
+  </si>
+  <si>
+    <t>in_file</t>
+  </si>
+  <si>
+    <t>gork1</t>
+  </si>
+  <si>
+    <t>gork2</t>
+  </si>
+  <si>
+    <t>gork3</t>
+  </si>
+  <si>
+    <t>gork4</t>
+  </si>
+  <si>
+    <t>gork5</t>
+  </si>
+  <si>
+    <t>definitions_file</t>
+  </si>
+  <si>
+    <t>/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/plan-net-definitions.json</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>owned-by</t>
+  </si>
+  <si>
+    <t>coverage-area</t>
+  </si>
+  <si>
+    <t>administered-by</t>
+  </si>
+  <si>
+    <t>participating-organization</t>
+  </si>
+  <si>
+    <t>primary-organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/ImplementationGuide/hl7.fhir.us.davinci-pdex-plan-net</t>
+  </si>
+  <si>
+    <t>service-type</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>service-category</t>
+  </si>
+  <si>
+    <t>plan-type</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t>Endpoint:organization</t>
+  </si>
+  <si>
+    <t>PractitionerRole:practitioner</t>
+  </si>
+  <si>
+    <t>!Organization</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,HealthcareService:coverage-area,HealthcareService:organization,HealthcareService:endpoint</t>
+  </si>
+  <si>
+    <t>InsurancePlan:administered-by,InsurancePlan:owned-by,InsurancePlan:coverage-area</t>
+  </si>
+  <si>
+    <t>PractitionerRole:practitioner, PractitionerRole:organization,PractitionerRole:location, PractitionerRole:service, PractitionerRole:network, PractitionerRole:endpoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole:service,OrganizationAffiliation:service</t>
+  </si>
+  <si>
+    <t>Endpoint:organization,HealthcareService:organization,InsurancePlan:administered-by,InsurancePlan:owned-by,OrganizationAffiliation:primary-organization,PractitionerRole:organization,PractitionerRole:network,OrganizationAffiliation:participating-organization</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>skip rest interaction section</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](implementation.html#general-security-considerations) section for requirements and recommendations.
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>!MedicationStatement</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>davinci-pdex-plan-net</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Endpoint</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-HealthcareService</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-InsurancePlan</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Location</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Network</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-OrganizationAffiliation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Practitioner</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-PractitionerRole</t>
-  </si>
-  <si>
-    <t>Plan-Net Endpoint</t>
-  </si>
-  <si>
-    <t>Plan-Net HealthcareService</t>
-  </si>
-  <si>
-    <t>Plan-Net InsurancePlan</t>
-  </si>
-  <si>
-    <t>Plan-Net Location</t>
-  </si>
-  <si>
-    <t>Plan-Net Network</t>
-  </si>
-  <si>
-    <t>Plan-Net Organization</t>
-  </si>
-  <si>
-    <t>Plan-Net OrganizationAffiliation</t>
-  </si>
-  <si>
-    <t>Plan-Net Practitioner</t>
-  </si>
-  <si>
-    <t>Plan-Net PractitionerRole</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>HealthcareService</t>
-  </si>
-  <si>
-    <t>InsurancePlan</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation</t>
-  </si>
-  <si>
-    <t>conf_Endpoint</t>
-  </si>
-  <si>
-    <t>conf_HealthcareService</t>
-  </si>
-  <si>
-    <t>conf_InsurancePlan</t>
-  </si>
-  <si>
-    <t>conf_Network</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>practitioner</t>
-  </si>
-  <si>
-    <t>insurancePlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner </t>
-  </si>
-  <si>
-    <t>specialty</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_OrganizationAffiliation</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the Plan-Net Server actor which is responsible for providing responses to the queries submitted by the Plan-Net Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Plan-Net Servers are defined. Systems implementing this capability statement should meet the [CMS FInal Rule requirement for provider directory access].  Plan-Net  Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>canon</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>publishersystem</t>
-  </si>
-  <si>
-    <t>publishervalue</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>HL7 Financial Management Working Group (FM WG)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/</t>
-  </si>
-  <si>
-    <t>plannet</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/fm/index.cfm</t>
+    <t>Location:endpoint, Location:organization, Location:partof</t>
+  </si>
+  <si>
+    <t>HealthcareService:location,InsurancePlan:coverage-area,OrganizationAffiliation:location,PractitionerRole:location</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Plan-Net</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>_lastUpdated</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>address-city</t>
+  </si>
+  <si>
+    <t>address-state</t>
+  </si>
+  <si>
+    <t>address-postalcode</t>
+  </si>
+  <si>
+    <t>!InsurancePlan</t>
+  </si>
+  <si>
+    <t>network -- deleted 10/06/20</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation:primary-organization, 
+OrganizationAffiliation:participating-organization,OrganizationAffiliation:location,OrganizationAffiliation:service,OrganizationAffiliation:endpoint,OrganizationAffiliation:network</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the Plan-Net Server actor which is responsible for providing responses to the queries submitted by the Plan-Net Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Plan-Net Servers are defined. Systems implementing this capability statement should meet the CMS FInal Rule requirement for provider directory access.  Plan-Net  Clients can use the required capabilities to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>Organization:partof,Organization:endpoint,Organization:coverage-area</t>
   </si>
   <si>
     <t xml:space="preserve">The Plan-Net  Server **SHALL**:
@@ -710,124 +849,14 @@
    - (Status 410): deleted resource.
 1. Support json source formats for all Plan-Net interactions.
 1. Identify the Plan-Net  profiles supported as part of the FHIR `meta.profile` attribute for each instance.
+1. Support the searchParameters on each profile  individually and in combination.
+1.Support forward and reverse chaining on all search parameters that specify the 'chain' property
 The Plan-Net  Server **SHOULD**:
 1. Support xml source formats for all Plan-Net  interactions.
 </t>
   </si>
   <si>
-    <t>ig_package_tar_path</t>
-  </si>
-  <si>
-    <t>ig_source_path</t>
-  </si>
-  <si>
-    <t>in_path</t>
-  </si>
-  <si>
-    <t>in_file</t>
-  </si>
-  <si>
-    <t>gork1</t>
-  </si>
-  <si>
-    <t>gork2</t>
-  </si>
-  <si>
-    <t>gork3</t>
-  </si>
-  <si>
-    <t>gork4</t>
-  </si>
-  <si>
-    <t>gork5</t>
-  </si>
-  <si>
-    <t>definitions_file</t>
-  </si>
-  <si>
-    <t>/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/plan-net-definitions.json</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>owned-by</t>
-  </si>
-  <si>
-    <t>coverage-area</t>
-  </si>
-  <si>
-    <t>administered-by</t>
-  </si>
-  <si>
-    <t>participating-organization</t>
-  </si>
-  <si>
-    <t>primary-organization</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pdex-plan-net/ImplementationGuide/hl7.fhir.us.davinci-pdex-plan-net</t>
-  </si>
-  <si>
-    <t>service-type</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>service-category</t>
-  </si>
-  <si>
-    <t>plan-type</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t>Endpoint:organization</t>
-  </si>
-  <si>
-    <t>PractitionerRole:practitioner</t>
-  </si>
-  <si>
-    <t>Organization.partof,Organization.endpoint</t>
-  </si>
-  <si>
-    <t>NOT USED</t>
-  </si>
-  <si>
-    <t>!Organization</t>
-  </si>
-  <si>
-    <t>HealthcareService:location,HealthcareService:coverage-area,HealthcareService:organization,HealthcareService:endpoint</t>
-  </si>
-  <si>
-    <t>InsurancePlan:administered-by,InsurancePlan:owned-by,InsurancePlan:coverage-area</t>
-  </si>
-  <si>
-    <t>Location:endpoint, Location:organization, Location.partof</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation:primary-organization, 
-OrganizationAffiliation:participating-organization,OrganizationAffiliation.location,OrganizationAffiliation:service,OrganizationAffiliation:endpoint</t>
-  </si>
-  <si>
-    <t>PractitionerRole:practitioner, PractitionerRole:organization,PractitionerRole:location, PractitionerRole:service, PractitionerRole:network, PractitionerRole:endpoint</t>
-  </si>
-  <si>
-    <t>PractitionerRole:service,OrganizationAffiliation:service</t>
-  </si>
-  <si>
-    <t>HealthcareService:location,InsurancePlan:coverage-area,OrganizationAffiliation.location,PractitionerRole:location</t>
-  </si>
-  <si>
-    <t>Endpoint:organization,HealthcareService:organization,InsurancePlan:administered-by,InsurancePlan:owned-by,OrganizationAffiliation:primary-organization,PractitionerRole:organization,PractitionerRole:network,OrganizationAffiliation:participating-organization</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>skip rest interaction section</t>
+    <t>identifier</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C527BFB-CCF4-354D-B696-43330F2FE9C6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1415,101 +1444,101 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2403,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2389,7 +2418,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2452,7 +2481,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2466,7 +2495,7 @@
         <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -2480,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -2494,7 +2523,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -2508,7 +2537,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2522,7 +2551,7 @@
         <v>114</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -2787,7 +2816,7 @@
         <v>103</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -2804,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2829,68 +2858,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>225</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>210</v>
+      <c r="B6" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>132</v>
+      <c r="B10" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{C5262738-4197-384F-9F2F-68AAA3C8851B}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{C5262738-4197-384F-9F2F-68AAA3C8851B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2951,55 +2988,55 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -3011,10 +3048,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -3026,10 +3063,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -3041,25 +3078,25 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -3071,10 +3108,10 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -3111,7 +3148,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3124,7 +3161,7 @@
     <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
     <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="38.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="54.6640625" style="2" customWidth="1"/>
     <col min="23" max="23" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -3207,7 +3244,7 @@
     </row>
     <row r="2" spans="1:24" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -3222,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -3230,7 +3267,7 @@
     </row>
     <row r="3" spans="1:24" ht="65" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -3242,16 +3279,16 @@
         <v>13</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -3263,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
@@ -3285,7 +3322,7 @@
         <v>223</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="W5" s="26"/>
       <c r="X5"/>
@@ -3304,16 +3341,16 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:24" ht="81" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -3325,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="W7" s="26"/>
     </row>
@@ -3343,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="W8" s="26"/>
     </row>
@@ -3361,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -3502,25 +3539,25 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>116</v>
@@ -3729,12 +3766,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -3743,7 +3780,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -3752,7 +3789,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -3761,7 +3798,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -3775,13 +3812,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4245,10 +4282,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -4300,10 +4337,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -4325,7 +4362,7 @@
         <v>73</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" ref="J10:J54" si="7">B10&amp;"."&amp;C10</f>
+        <f t="shared" ref="J10:J73" si="7">B10&amp;"."&amp;C10</f>
         <v>HealthcareService.location</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4351,20 +4388,20 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="1" t="str">
-        <f t="shared" ref="AB10:AB54" si="9">"SearchParameter-plan-net-"&amp;LOWER((B10)&amp;"-"&amp;C10&amp;".html")</f>
+        <f t="shared" ref="AB10:AB59" si="9">"SearchParameter-plan-net-"&amp;LOWER((B10)&amp;"-"&amp;C10&amp;".html")</f>
         <v>SearchParameter-plan-net-healthcareservice-location.html</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" ref="A11:A54" si="10">A10+1</f>
+        <f t="shared" ref="A11:A57" si="10">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -4420,10 +4457,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -4476,10 +4513,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -4532,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -4588,10 +4625,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -4645,10 +4682,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -4701,10 +4738,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -4714,7 +4751,7 @@
       </c>
       <c r="F17" s="17" t="str">
         <f>"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B17)</f>
-        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-!insuranceplan</v>
       </c>
       <c r="G17" t="s">
         <v>59</v>
@@ -4727,7 +4764,7 @@
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>InsurancePlan.network</v>
+        <v>!InsurancePlan.network -- deleted 10/06/20</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>59</v>
@@ -4743,13 +4780,13 @@
       </c>
       <c r="Y17" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Support searching for a InsurancePlan by its network</v>
+        <v>Support searching for a InsurancePlan by its network -- deleted 10/06/20</v>
       </c>
       <c r="Z17"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-plan-net-insuranceplan-network.html</v>
+        <v>SearchParameter-plan-net-!insuranceplan-network -- deleted 10/06/20.html</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4761,7 +4798,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4770,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" ref="F18:F52" si="15">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B18)</f>
+        <f t="shared" ref="F18:F55" si="15">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B18)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G18" t="s">
@@ -4800,7 +4837,7 @@
       </c>
       <c r="Y18" s="23" t="str">
         <f>"Support searching for a "&amp; B17 &amp;" by its " &amp; C18</f>
-        <v>Support searching for a InsurancePlan by its partof</v>
+        <v>Support searching for a !InsurancePlan by its partof</v>
       </c>
       <c r="AB18" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4816,7 +4853,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -4872,7 +4909,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -4925,10 +4962,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -4984,7 +5021,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -5039,10 +5076,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -5098,7 +5135,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -5151,10 +5188,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -5206,10 +5243,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -5262,10 +5299,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -5318,10 +5355,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -5374,10 +5411,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -5430,10 +5467,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -5489,7 +5526,7 @@
         <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -5546,7 +5583,7 @@
         <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -5603,7 +5640,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -5660,7 +5697,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5717,7 +5754,7 @@
         <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -5773,7 +5810,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -5826,7 +5863,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>25</v>
@@ -5875,10 +5912,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -5924,10 +5961,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -5973,10 +6010,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -6008,7 +6045,7 @@
         <v>59</v>
       </c>
       <c r="Y40" s="23" t="str">
-        <f t="shared" ref="Y40:Y54" si="32">"Support searching for a "&amp; B39 &amp;" by its " &amp; C40</f>
+        <f t="shared" ref="Y40:Y57" si="32">"Support searching for a "&amp; B39 &amp;" by its " &amp; C40</f>
         <v>Support searching for a HealthcareService by its specialty</v>
       </c>
       <c r="AB40" s="1" t="str">
@@ -6022,7 +6059,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>25</v>
@@ -6071,10 +6108,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -6114,16 +6151,16 @@
         <v>SearchParameter-plan-net-insuranceplan-plan-type.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="10"/>
-        <v>35</v>
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -6132,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F43" si="33">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B43)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6145,8 +6182,8 @@
         <v>60</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>insurancePlan.type</v>
+        <f t="shared" ref="J43" si="34">B43&amp;"."&amp;C43</f>
+        <v>InsurancePlan.identifier</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>59</v>
@@ -6154,25 +6191,23 @@
       <c r="M43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y43" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>Support searching for a InsurancePlan by its type</v>
-      </c>
+      <c r="Y43" s="23"/>
+      <c r="AA43" s="2"/>
       <c r="AB43" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-plan-net-insuranceplan-type.html</v>
+        <v>SearchParameter-plan-net-insuranceplan-identifier.html</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>#REF!</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -6195,7 +6230,7 @@
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Location.address</v>
+        <v>Location.address-city</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>59</v>
@@ -6203,25 +6238,25 @@
       <c r="M44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y44" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>Support searching for a insurancePlan by its address</v>
+      <c r="Y44" s="23" t="e">
+        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C44</f>
+        <v>#REF!</v>
       </c>
       <c r="AB44" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-plan-net-location-address.html</v>
+        <v>SearchParameter-plan-net-location-address-city.html</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <f t="shared" ref="A45" si="33">A44+1</f>
-        <v>37</v>
+      <c r="A45" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -6230,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" ref="F45" si="34">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B45)</f>
+        <f t="shared" ref="F45:F46" si="35">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B45)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6240,11 +6275,11 @@
         <v>59</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f t="shared" ref="J45" si="35">B45&amp;"."&amp;C45</f>
-        <v>Location.type</v>
+        <f t="shared" ref="J45:J46" si="36">B45&amp;"."&amp;C45</f>
+        <v>Location.address-state</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>59</v>
@@ -6253,25 +6288,25 @@
         <v>59</v>
       </c>
       <c r="Y45" s="23" t="str">
-        <f t="shared" ref="Y45" si="36">"Support searching for a "&amp; B44 &amp;" by its " &amp; C45</f>
-        <v>Support searching for a Location by its type</v>
+        <f t="shared" ref="Y45:Y46" si="37">"Support searching for a "&amp; B44 &amp;" by its " &amp; C45</f>
+        <v>Support searching for a Location by its address-state</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="1" t="str">
-        <f t="shared" ref="AB45" si="37">"SearchParameter-plan-net-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
-        <v>SearchParameter-plan-net-location-type.html</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <f>A44+1</f>
-        <v>37</v>
+        <f t="shared" ref="AB45:AB46" si="38">"SearchParameter-plan-net-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
+        <v>SearchParameter-plan-net-location-address-state.html</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -6280,436 +6315,1483 @@
         <v>1</v>
       </c>
       <c r="F46" s="17" t="str">
+        <f t="shared" si="35"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>Location.address-postalcode</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y46" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Support searching for a Location by its address-postalcode</v>
+      </c>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>SearchParameter-plan-net-location-address-postalcode.html</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17" t="str">
+        <f t="shared" ref="F47" si="39">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B47)</f>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" ref="J47" si="40">B47&amp;"."&amp;C47</f>
+        <v>Location.address</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y47" s="23" t="str">
+        <f t="shared" ref="Y47" si="41">"Support searching for a "&amp; B46 &amp;" by its " &amp; C47</f>
+        <v>Support searching for a Location by its address</v>
+      </c>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="1" t="str">
+        <f t="shared" ref="AB47" si="42">"SearchParameter-plan-net-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
+        <v>SearchParameter-plan-net-location-address.html</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="e">
+        <f>A44+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17" t="str">
+        <f t="shared" ref="F48" si="43">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B48)</f>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" ref="J48" si="44">B48&amp;"."&amp;C48</f>
+        <v>Location.type</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y48" s="23" t="str">
+        <f t="shared" ref="Y48" si="45">"Support searching for a "&amp; B44 &amp;" by its " &amp; C48</f>
+        <v>Support searching for a Location by its type</v>
+      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="1" t="str">
+        <f t="shared" ref="AB48" si="46">"SearchParameter-plan-net-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
+        <v>SearchParameter-plan-net-location-type.html</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="e">
+        <f t="shared" ref="A49" si="47">A48+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17" t="str">
         <f t="shared" si="15"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="G49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="J49" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Organization.address</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y46" s="23" t="e">
-        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C46</f>
+      <c r="K49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y49" s="23" t="e">
+        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C49</f>
         <v>#REF!</v>
       </c>
-      <c r="AB46" s="1" t="str">
+      <c r="AB49" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-organization-address.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="1" t="b">
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="17" t="str">
+      <c r="F50" s="17" t="str">
         <f t="shared" si="15"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="J50" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Organization.name</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y47" s="23" t="str">
+      <c r="K50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y50" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a Organization by its name</v>
       </c>
-      <c r="AB47" s="1" t="str">
+      <c r="AB50" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-organization-name.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="17" t="str">
+      <c r="F51" s="17" t="str">
         <f t="shared" si="15"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="J51" s="1" t="str">
         <f t="shared" si="7"/>
         <v>OrganizationAffiliation.role</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y48" s="23" t="e">
-        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C48</f>
+      <c r="K51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y51" s="23" t="e">
+        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C51</f>
         <v>#REF!</v>
       </c>
-      <c r="AB48" s="1" t="str">
+      <c r="AB51" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-organizationaffiliation-role.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="17" t="str">
+      <c r="F52" s="17" t="str">
         <f t="shared" si="15"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="J52" s="1" t="str">
         <f t="shared" si="7"/>
         <v>OrganizationAffiliation.specialty</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y49" s="23" t="str">
+      <c r="K52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y52" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a OrganizationAffiliation by its specialty</v>
       </c>
-      <c r="AB49" s="1" t="str">
+      <c r="AB52" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-organizationaffiliation-specialty.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1" t="b">
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="17" t="str">
+      <c r="F53" s="17" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner </v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="G53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="1" t="str">
-        <f>B50&amp;".name."&amp;C50</f>
+      <c r="J53" s="1" t="str">
+        <f>B53&amp;".name."&amp;C53</f>
         <v>Practitioner .name.family</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y50" s="23" t="str">
+      <c r="K53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y53" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a OrganizationAffiliation by its family</v>
       </c>
-      <c r="AB50" s="1" t="str">
+      <c r="AB53" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-practitioner -family.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="b">
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="17" t="str">
+      <c r="F54" s="17" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner </v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="1" t="str">
-        <f>B51&amp;".name."&amp;C51</f>
+      <c r="J54" s="1" t="str">
+        <f>B54&amp;".name."&amp;C54</f>
         <v>Practitioner .name.given</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y51" s="23" t="str">
+      <c r="K54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a Practitioner  by its given</v>
       </c>
-      <c r="AB51" s="1" t="str">
+      <c r="AB54" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-practitioner -given.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="55" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>43</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="1" t="b">
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="17" t="str">
+      <c r="F55" s="17" t="str">
         <f t="shared" si="15"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="J55" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Practitioner.name</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y52" s="23" t="str">
+      <c r="K55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y55" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a Practitioner  by its name</v>
       </c>
-      <c r="AB52" s="1" t="str">
+      <c r="AB55" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-practitioner-name.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="B53" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1" t="b">
+      <c r="C56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="17" t="str">
-        <f t="shared" ref="F53:F54" si="38">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B53)</f>
+      <c r="F56" s="17" t="str">
+        <f t="shared" ref="F56:F59" si="48">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B56)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="G56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J53" s="1" t="str">
+      <c r="J56" s="1" t="str">
         <f t="shared" si="7"/>
         <v>PractitionerRole.role</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y53" s="23" t="str">
+      <c r="K56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y56" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a Practitioner by its role</v>
       </c>
-      <c r="AB53" s="1" t="str">
+      <c r="AB56" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-practitionerrole-role.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="57" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="1" t="b">
+      <c r="C57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="17" t="str">
-        <f t="shared" si="38"/>
+      <c r="F57" s="17" t="str">
+        <f t="shared" si="48"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="J57" s="1" t="str">
         <f t="shared" si="7"/>
         <v>PractitionerRole.specialty</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y54" s="23" t="str">
+      <c r="K57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y57" s="23" t="str">
         <f t="shared" si="32"/>
         <v>Support searching for a PractitionerRole by its specialty</v>
       </c>
-      <c r="AB54" s="1" t="str">
+      <c r="AB57" s="1" t="str">
         <f t="shared" si="9"/>
         <v>SearchParameter-plan-net-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="17" t="s">
-        <v>219</v>
-      </c>
+    <row r="58" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="e">
+        <f>A57+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-endpoint</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" t="s">
+        <v>229</v>
+      </c>
+      <c r="I58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Endpoint._id</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="9"/>
+        <v>SearchParameter-plan-net-endpoint-_id.html</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="e">
+        <f>A58+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-endpoint</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Endpoint._lastUpdated</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="9"/>
+        <v>SearchParameter-plan-net-endpoint-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="e">
+        <f t="shared" ref="A60:A78" si="49">A59+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17" t="str">
+        <f t="shared" ref="F60:F73" si="50">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B60)</f>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>InsurancePlan._id</v>
+      </c>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="1" t="str">
+        <f t="shared" ref="AB60:AB73" si="51">"SearchParameter-plan-net-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
+        <v>SearchParameter-plan-net-insuranceplan-_id.html</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>InsurancePlan._lastUpdated</v>
+      </c>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-insuranceplan-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-healthcareservice</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>HealthcareService._id</v>
+      </c>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-healthcareservice-_id.html</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-healthcareservice</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>HealthcareService._lastUpdated</v>
+      </c>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-healthcareservice-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Location._id</v>
+      </c>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-location-_id.html</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Location._lastUpdated</v>
+      </c>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-location-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Organization._id</v>
+      </c>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organization-_id.html</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Organization._lastUpdated</v>
+      </c>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organization-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>OrganizationAffiliation._id</v>
+      </c>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organizationaffiliation-_id.html</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>OrganizationAffiliation._lastUpdated</v>
+      </c>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organizationaffiliation-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Practitioner._id</v>
+      </c>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitioner-_id.html</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Practitioner._lastUpdated</v>
+      </c>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitioner-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PractitionerRole._id</v>
+      </c>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitionerrole-_id.html</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PractitionerRole._lastUpdated</v>
+      </c>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitionerrole-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="17" t="str">
+        <f t="shared" ref="F74" si="52">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B74)</f>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f t="shared" ref="J74:J78" si="53">B74&amp;"."&amp;C74</f>
+        <v>Organization.type</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="1" t="str">
+        <f t="shared" ref="AB74" si="54">"SearchParameter-plan-net-"&amp;LOWER((B74)&amp;"-"&amp;C74&amp;".html")</f>
+        <v>SearchParameter-plan-net-organization-type.html</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17" t="str">
+        <f t="shared" ref="F75:F78" si="55">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B75)</f>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>InsurancePlan.type</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="1" t="str">
+        <f t="shared" ref="AB75:AB78" si="56">"SearchParameter-plan-net-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
+        <v>SearchParameter-plan-net-insuranceplan-type.html</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>Practitioner.family</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>SearchParameter-plan-net-practitioner-family.html</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>Practitioner.given</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>SearchParameter-plan-net-practitioner-given.html</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>Organization.coverage-area</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y78" s="23" t="str">
+        <f t="shared" ref="Y78" si="57">"Support searching for a "&amp; B77 &amp;" by its " &amp; C78</f>
+        <v>Support searching for a Practitioner by its coverage-area</v>
+      </c>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>SearchParameter-plan-net-organization-coverage-area.html</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="17"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="17"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="6:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="17"/>
+      <c r="AA81" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB54" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <autoFilter ref="A1:AB78" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA28">
     <sortCondition ref="B1"/>
   </sortState>
